--- a/router/exportFiles/stock_list.xlsx
+++ b/router/exportFiles/stock_list.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,42 +398,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="str">
+        <v>C000002</v>
       </c>
       <c r="B2">
-        <v>9168.5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>A00002</v>
       </c>
       <c r="D2" t="str">
-        <v>明光牛奶</v>
+        <v>美琳服饰</v>
       </c>
       <c r="E2">
-        <v>10000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>12345678</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3" t="str">
-        <v>12345</v>
-      </c>
-      <c r="D3" t="str">
-        <v>ALI01</v>
-      </c>
-      <c r="E3">
-        <v>12345678</v>
+        <v>10000002</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/stock_list.xlsx
+++ b/router/exportFiles/stock_list.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,24 +399,41 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>C000001</v>
+      </c>
+      <c r="B2">
+        <v>9168.5</v>
+      </c>
+      <c r="C2" t="str">
+        <v>A00001</v>
+      </c>
+      <c r="D2" t="str">
+        <v>明光牛奶</v>
+      </c>
+      <c r="E2" t="str">
+        <v>10000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>C000002</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="B3">
+        <v>76328</v>
+      </c>
+      <c r="C3" t="str">
         <v>A00002</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D3" t="str">
         <v>美琳服饰</v>
       </c>
-      <c r="E2">
+      <c r="E3" t="str">
         <v>10000002</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>